--- a/数据整理/stocks/港股/00909-明源云.xlsx
+++ b/数据整理/stocks/港股/00909-明源云.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>001691</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>南方香港成长灵活配置混合QDII</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2735</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>167506</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>167506</t>
+          <t>167507</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.86</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.18</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>167507</t>
+          <t>006930</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+          <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.86</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001691</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方香港成长灵活配置混合QDII</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.64</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8831</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002333</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票C</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>167506</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>167506</t>
+          <t>002333</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+          <t>汇丰晋信沪港深股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -800,15 +910,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.28</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.78</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00909-明源云.xlsx
+++ b/数据整理/stocks/港股/00909-明源云.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4118</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00909-明源云.xlsx
+++ b/数据整理/stocks/港股/00909-明源云.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00909-明源云.xlsx
+++ b/数据整理/stocks/港股/00909-明源云.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00909-明源云.xlsx
+++ b/数据整理/stocks/港股/00909-明源云.xlsx
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/00909-明源云.xlsx
+++ b/数据整理/stocks/港股/00909-明源云.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,243 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001691</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方香港成长灵活配置混合QDII</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2735</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>167506</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2093</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>167507</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -700,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>167506</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.54</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8831</t>
+          <t>0.0671</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -789,150 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>167507</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4813</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>167506</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1254</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002333</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0435</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>167507</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0324</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,32 +869,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>167506</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>21.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0671</t>
+          <t>0.8831</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1167,36 +907,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>167507</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>安信中证深圳科技创新主题指数（LOF）C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1210,96 +1064,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2735</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.57</v>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.52</v>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00909-明源云.xlsx
+++ b/数据整理/stocks/港股/00909-明源云.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.58</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>167506</t>
+          <t>003956</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+          <t>南方产业智选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>85.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0671</t>
+          <t>0.1760</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,340 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>167507</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+          <t>华泰柏瑞新经济沪港深混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.1132</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -737,36 +1058,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011021</t>
+          <t>167506</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富互联网核心资产六个月持有期混合A</t>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.98</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4118</t>
+          <t>0.0671</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -775,36 +1096,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011022</t>
+          <t>167507</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富互联网核心资产六个月持有期混合C</t>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64.98</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1632</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -813,6 +1134,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4118</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1058,7 +1511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
